--- a/storage/framework/laravel-excel/laravel-excel-sPJ1BJz8Cd7PkUE36V8CeVM38r9U77uH.xlsx
+++ b/storage/framework/laravel-excel/laravel-excel-sPJ1BJz8Cd7PkUE36V8CeVM38r9U77uH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e18f67d91ec2f857/เอกสาร/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\starmicronics\storage\framework\laravel-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{D0DA49E2-39F5-4CC2-A041-59223C3B7D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{85F92DAE-399E-4FAC-9A73-E1F44B9A5FA2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D85B66-E347-498D-9B31-0A456C79E52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2895" windowWidth="29040" windowHeight="15840" xr2:uid="{4321E471-F067-4146-8C9A-2A35EE7EDF8F}"/>
+    <workbookView xWindow="-28920" yWindow="-1275" windowWidth="29040" windowHeight="15840" xr2:uid="{4321E471-F067-4146-8C9A-2A35EE7EDF8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -338,6 +338,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -345,7 +356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,6 +365,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -671,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E06FBBD-C18A-4E9A-8612-9A38AC71DE18}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31" defaultRowHeight="15"/>
@@ -1867,6 +1884,12 @@
       </c>
       <c r="L33" s="1"/>
     </row>
+    <row r="34" spans="1:12">
+      <c r="C34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
